--- a/Data/Input/Sapling Server Credentials.xlsx
+++ b/Data/Input/Sapling Server Credentials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11250" windowHeight="3015"/>
+    <workbookView windowWidth="11250" windowHeight="3015" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ace" sheetId="1" r:id="rId1"/>
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215">
   <si>
     <t>ACE</t>
   </si>
@@ -353,6 +353,9 @@
   </si>
   <si>
     <t>Junaid Zaka</t>
+  </si>
+  <si>
+    <t>http://buzz.shr-eng.com/</t>
   </si>
   <si>
     <t>Junaid Zaka 14 Feb</t>
@@ -833,11 +836,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="mmm\ d"/>
+    <numFmt numFmtId="176" formatCode="mmm\ d"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -928,10 +931,40 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -942,25 +975,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -973,7 +998,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -987,23 +1020,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1025,7 +1044,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1042,44 +1083,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1178,7 +1181,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1190,7 +1193,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1202,43 +1223,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1256,37 +1265,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1298,7 +1283,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1310,55 +1349,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1419,15 +1422,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -1450,36 +1444,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1499,165 +1473,194 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="39" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1667,7 +1670,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1727,7 +1730,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1736,7 +1739,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1752,7 +1755,7 @@
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2076,8 +2079,8 @@
   </sheetPr>
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -2510,8 +2513,8 @@
   </sheetPr>
   <dimension ref="A1:Z986"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -2734,7 +2737,7 @@
       <c r="Y7" s="43"/>
       <c r="Z7" s="43"/>
     </row>
-    <row r="8" ht="12.75" spans="1:26">
+    <row r="8" spans="1:26">
       <c r="A8" s="43"/>
       <c r="B8" s="43"/>
       <c r="C8" s="43"/>
@@ -2762,14 +2765,13 @@
       <c r="Y8" s="43"/>
       <c r="Z8" s="43"/>
     </row>
-    <row r="9" ht="12.75" spans="1:26">
+    <row r="9" spans="1:26">
       <c r="A9" s="43"/>
       <c r="B9" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="48" t="str">
-        <f>HYPERLINK("http://buzz.shr-eng.com/","buzz.shr")</f>
-        <v>buzz.shr</v>
+      <c r="C9" s="48" t="s">
+        <v>57</v>
       </c>
       <c r="D9" s="43"/>
       <c r="E9" s="43"/>
@@ -2795,7 +2797,7 @@
       <c r="Y9" s="43"/>
       <c r="Z9" s="43"/>
     </row>
-    <row r="10" ht="12.75" spans="1:26">
+    <row r="10" spans="1:26">
       <c r="A10" s="43"/>
       <c r="B10" s="46" t="s">
         <v>7</v>
@@ -2908,17 +2910,17 @@
         <v>19</v>
       </c>
       <c r="E13" s="51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F13" s="43"/>
       <c r="G13" s="51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H13" s="51" t="s">
         <v>22</v>
       </c>
       <c r="I13" s="51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J13" s="43"/>
       <c r="K13" s="43"/>
@@ -2944,23 +2946,23 @@
         <v>20</v>
       </c>
       <c r="C14" s="51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E14" s="51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F14" s="43"/>
       <c r="G14" s="51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H14" s="51" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I14" s="51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J14" s="43"/>
       <c r="K14" s="43"/>
@@ -2986,23 +2988,23 @@
         <v>24</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D15" s="51" t="s">
         <v>22</v>
       </c>
       <c r="E15" s="51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F15" s="43"/>
       <c r="G15" s="51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H15" s="51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I15" s="51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J15" s="43"/>
       <c r="K15" s="43"/>
@@ -3028,23 +3030,23 @@
         <v>7</v>
       </c>
       <c r="C16" s="51" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D16" s="51" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E16" s="51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F16" s="43"/>
       <c r="G16" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="H16" s="51" t="s">
-        <v>66</v>
-      </c>
       <c r="I16" s="51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J16" s="43"/>
       <c r="K16" s="43"/>
@@ -3070,23 +3072,23 @@
         <v>30</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D17" s="51" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E17" s="51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F17" s="43"/>
       <c r="G17" s="51" t="s">
         <v>50</v>
       </c>
       <c r="H17" s="51" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I17" s="51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J17" s="43"/>
       <c r="K17" s="43"/>
@@ -3112,23 +3114,23 @@
         <v>35</v>
       </c>
       <c r="C18" s="51" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D18" s="51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E18" s="51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F18" s="43"/>
       <c r="G18" s="51" t="s">
         <v>49</v>
       </c>
       <c r="H18" s="51" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I18" s="51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J18" s="43"/>
       <c r="K18" s="43"/>
@@ -30253,6 +30255,9 @@
       <c r="Z986" s="43"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C9" r:id="rId1" display="http://buzz.shr-eng.com/"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -30312,7 +30317,7 @@
     <row r="2" ht="18.75" spans="1:26">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -30342,7 +30347,7 @@
     <row r="3" ht="12.75" spans="1:26">
       <c r="A3" s="1"/>
       <c r="B3" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -30407,10 +30412,10 @@
     </row>
     <row r="7" ht="12.75" spans="2:3">
       <c r="B7" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" ht="12.75" spans="2:3">
@@ -30418,7 +30423,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" ht="12.75" spans="2:3">
@@ -30426,7 +30431,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" ht="12.75" spans="2:9">
@@ -30461,16 +30466,16 @@
         <v>19</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>43</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" ht="12.75" spans="2:9">
@@ -30478,22 +30483,22 @@
         <v>20</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>22</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" ht="12.75" spans="2:9">
@@ -30501,22 +30506,22 @@
         <v>24</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>22</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>22</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" ht="12.75" spans="2:9">
@@ -30524,22 +30529,22 @@
         <v>7</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>22</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" ht="12.75" spans="2:9">
@@ -30547,22 +30552,22 @@
         <v>30</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>22</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>22</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" ht="12.75" spans="2:9">
@@ -30570,22 +30575,22 @@
         <v>35</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>22</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>22</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -30653,7 +30658,7 @@
     <row r="2" ht="18.75" spans="1:26">
       <c r="A2" s="38"/>
       <c r="B2" s="39" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
@@ -30683,7 +30688,7 @@
     <row r="3" ht="12.75" spans="1:26">
       <c r="A3" s="38"/>
       <c r="B3" s="40" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C3" s="38"/>
       <c r="D3" s="38"/>
@@ -30751,7 +30756,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" ht="12.75" spans="2:3">
@@ -30759,7 +30764,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" ht="12.75" spans="2:3">
@@ -30767,7 +30772,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" ht="12.75" spans="3:9">
@@ -30801,16 +30806,16 @@
         <v>19</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G13" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="I13" s="12" t="s">
         <v>98</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" ht="12.75" spans="2:9">
@@ -30818,22 +30823,22 @@
         <v>20</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>22</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" ht="12.75" spans="2:9">
@@ -30841,22 +30846,22 @@
         <v>24</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>22</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>22</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" ht="12.75" spans="2:9">
@@ -30864,22 +30869,22 @@
         <v>7</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>22</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>22</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" ht="12.75" spans="2:9">
@@ -30887,22 +30892,22 @@
         <v>30</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" ht="12.75" spans="2:9">
@@ -30910,22 +30915,22 @@
         <v>35</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -30992,7 +30997,7 @@
     <row r="2" ht="18.75" spans="1:26">
       <c r="A2" s="33"/>
       <c r="B2" s="34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C2" s="33"/>
       <c r="D2" s="33"/>
@@ -31022,7 +31027,7 @@
     <row r="3" ht="12.75" spans="1:26">
       <c r="A3" s="33"/>
       <c r="B3" s="35" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
@@ -31090,7 +31095,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" ht="12.75" spans="2:3">
@@ -31098,7 +31103,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" ht="12.75" spans="2:3">
@@ -31106,7 +31111,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" ht="12.75" spans="3:9">
@@ -31134,13 +31139,13 @@
         <v>14</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>18</v>
@@ -31149,7 +31154,7 @@
         <v>19</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" ht="12.75" spans="2:9">
@@ -31157,22 +31162,22 @@
         <v>20</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>22</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" ht="12.75" spans="2:9">
@@ -31183,19 +31188,19 @@
         <v>21</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>22</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" ht="12.75" spans="2:9">
@@ -31203,22 +31208,22 @@
         <v>7</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>22</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" ht="12.75" spans="2:9">
@@ -31226,22 +31231,22 @@
         <v>30</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>22</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" ht="12.75" spans="2:9">
@@ -31249,22 +31254,22 @@
         <v>35</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>22</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" ht="12.75" spans="3:5">
@@ -31299,13 +31304,13 @@
         <v>24</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" ht="12.75" spans="2:5">
@@ -31364,24 +31369,24 @@
   <sheetData>
     <row r="4" ht="12.75" spans="2:2">
       <c r="B4" s="27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" ht="12.75" spans="2:2">
       <c r="B6" s="29" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" ht="12.75" spans="1:26">
       <c r="A8" s="30"/>
       <c r="B8" s="31" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C8" s="30"/>
       <c r="D8" s="30"/>
       <c r="E8" s="30"/>
       <c r="F8" s="31" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G8" s="30"/>
       <c r="H8" s="30"/>
@@ -31409,18 +31414,18 @@
     </row>
     <row r="10" ht="12.75" spans="2:2">
       <c r="B10" s="27" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" ht="12.75" spans="2:4">
       <c r="B11" s="15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" ht="51" spans="2:6">
@@ -31434,17 +31439,17 @@
         <v>22</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" ht="12.75" spans="2:2">
       <c r="B14" s="27" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" ht="12.75" spans="2:2">
       <c r="B15" s="15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" ht="12.75" spans="2:2">
@@ -31455,7 +31460,7 @@
     <row r="18" ht="12.75" spans="1:26">
       <c r="A18" s="30"/>
       <c r="B18" s="31" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
@@ -31484,12 +31489,12 @@
     </row>
     <row r="20" ht="12.75" spans="2:2">
       <c r="B20" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" ht="12.75" spans="2:3">
       <c r="B22" s="15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>35</v>
@@ -31497,7 +31502,7 @@
     </row>
     <row r="23" ht="12.75" spans="2:3">
       <c r="B23" s="15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>7</v>
@@ -31505,7 +31510,7 @@
     </row>
     <row r="24" ht="12.75" spans="2:3">
       <c r="B24" s="15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>30</v>
@@ -31513,7 +31518,7 @@
     </row>
     <row r="25" ht="12.75" spans="2:3">
       <c r="B25" s="15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>20</v>
@@ -31521,13 +31526,13 @@
     </row>
     <row r="26" ht="12.75" spans="2:2">
       <c r="B26" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" ht="12.75" spans="1:26">
       <c r="A28" s="30"/>
       <c r="B28" s="31" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
@@ -31556,12 +31561,12 @@
     </row>
     <row r="30" ht="12.75" spans="2:2">
       <c r="B30" s="27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" ht="12.75" spans="2:2">
       <c r="B31" s="15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" ht="12.75" spans="2:2">
@@ -31571,12 +31576,12 @@
     </row>
     <row r="34" ht="12.75" spans="2:2">
       <c r="B34" s="27" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" ht="12.75" spans="2:2">
       <c r="B35" s="15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" ht="12.75" spans="2:2">
@@ -31587,7 +31592,7 @@
     <row r="38" ht="12.75" spans="1:26">
       <c r="A38" s="30"/>
       <c r="B38" s="31" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
@@ -31616,12 +31621,12 @@
     </row>
     <row r="40" ht="12.75" spans="2:2">
       <c r="B40" s="27" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" ht="12.75" spans="2:2">
       <c r="B41" s="15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" ht="12.75" spans="2:2">
@@ -31631,12 +31636,12 @@
     </row>
     <row r="44" ht="12.75" spans="2:2">
       <c r="B44" s="27" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" ht="12.75" spans="2:2">
       <c r="B45" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" ht="12.75" spans="2:2">
@@ -31647,7 +31652,7 @@
     <row r="48" ht="12.75" spans="1:26">
       <c r="A48" s="30"/>
       <c r="B48" s="31" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C48" s="30"/>
       <c r="D48" s="30"/>
@@ -31676,12 +31681,12 @@
     </row>
     <row r="50" ht="12.75" spans="2:2">
       <c r="B50" s="27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" ht="12.75" spans="2:2">
       <c r="B51" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" ht="12.75" spans="2:2">
@@ -31730,19 +31735,19 @@
     <row r="2" ht="18" spans="1:27">
       <c r="A2" s="17"/>
       <c r="B2" s="18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
@@ -31768,12 +31773,12 @@
     </row>
     <row r="3" ht="12.75" spans="8:8">
       <c r="H3" s="19" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" ht="12.75" spans="2:6">
       <c r="B4" s="26" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>21</v>
@@ -31782,47 +31787,47 @@
         <v>22</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F4" s="15"/>
     </row>
     <row r="5" ht="12.75" spans="2:6">
       <c r="B5" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="C5" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>168</v>
-      </c>
       <c r="F5" s="28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" ht="12.75" spans="3:6">
       <c r="C6" s="28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" ht="12.75" spans="3:5">
       <c r="C7" s="15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>7</v>
@@ -31830,10 +31835,10 @@
     </row>
     <row r="8" ht="12.75" spans="3:5">
       <c r="C8" s="15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>7</v>
@@ -31841,10 +31846,10 @@
     </row>
     <row r="9" ht="12.75" spans="3:5">
       <c r="C9" s="15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>7</v>
@@ -31852,7 +31857,7 @@
     </row>
     <row r="10" ht="12.75" spans="3:5">
       <c r="C10" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>22</v>
@@ -31863,29 +31868,29 @@
     </row>
     <row r="12" ht="12.75" spans="2:6">
       <c r="B12" s="26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" ht="12.75" spans="2:2">
       <c r="B13" s="27" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" ht="12.75" spans="2:5">
       <c r="B19" s="26" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>21</v>
@@ -31894,18 +31899,18 @@
         <v>22</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" ht="12.75" spans="2:5">
       <c r="B20" s="27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>7</v>
@@ -31913,10 +31918,10 @@
     </row>
     <row r="21" ht="12.75" spans="3:5">
       <c r="C21" s="15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>7</v>
@@ -31924,10 +31929,10 @@
     </row>
     <row r="22" ht="12.75" spans="3:5">
       <c r="C22" s="15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>7</v>
@@ -31935,10 +31940,10 @@
     </row>
     <row r="23" ht="12.75" spans="3:5">
       <c r="C23" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E23" s="15" t="s">
         <v>35</v>
@@ -31946,27 +31951,27 @@
     </row>
     <row r="25" ht="12.75" spans="2:5">
       <c r="B25" s="26" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" ht="12.75" spans="2:5">
       <c r="B26" s="27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E26" s="15" t="s">
         <v>7</v>
@@ -31974,10 +31979,10 @@
     </row>
     <row r="27" ht="12.75" spans="3:5">
       <c r="C27" s="15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>7</v>
@@ -31985,10 +31990,10 @@
     </row>
     <row r="28" ht="12.75" spans="3:5">
       <c r="C28" s="15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E28" s="15" t="s">
         <v>7</v>
@@ -31996,10 +32001,10 @@
     </row>
     <row r="29" ht="12.75" spans="3:5">
       <c r="C29" s="29" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E29" s="29" t="s">
         <v>20</v>
@@ -32007,27 +32012,27 @@
     </row>
     <row r="31" ht="12.75" spans="2:5">
       <c r="B31" s="26" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" ht="12.75" spans="2:5">
       <c r="B32" s="27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E32" s="15" t="s">
         <v>7</v>
@@ -32035,10 +32040,10 @@
     </row>
     <row r="33" ht="12.75" spans="3:5">
       <c r="C33" s="15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E33" s="15" t="s">
         <v>7</v>
@@ -32046,10 +32051,10 @@
     </row>
     <row r="34" ht="12.75" spans="3:5">
       <c r="C34" s="15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E34" s="15" t="s">
         <v>7</v>
@@ -32057,10 +32062,10 @@
     </row>
     <row r="35" ht="12.75" spans="3:5">
       <c r="C35" s="29" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E35" s="29" t="s">
         <v>20</v>
@@ -32068,27 +32073,27 @@
     </row>
     <row r="37" ht="12.75" spans="2:5">
       <c r="B37" s="26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" ht="12.75" spans="2:5">
       <c r="B38" s="27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E38" s="15" t="s">
         <v>7</v>
@@ -32096,10 +32101,10 @@
     </row>
     <row r="39" ht="12.75" spans="3:5">
       <c r="C39" s="15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>7</v>
@@ -32107,10 +32112,10 @@
     </row>
     <row r="40" ht="12.75" spans="3:5">
       <c r="C40" s="15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E40" s="15" t="s">
         <v>7</v>
@@ -32118,10 +32123,10 @@
     </row>
     <row r="41" ht="12.75" spans="3:5">
       <c r="C41" s="29" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E41" s="29" t="s">
         <v>20</v>
@@ -32129,27 +32134,27 @@
     </row>
     <row r="43" ht="12.75" spans="2:5">
       <c r="B43" s="26" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" ht="12.75" spans="2:5">
       <c r="B44" s="27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E44" s="15" t="s">
         <v>7</v>
@@ -32157,10 +32162,10 @@
     </row>
     <row r="45" ht="12.75" spans="3:5">
       <c r="C45" s="15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E45" s="15" t="s">
         <v>7</v>
@@ -32168,10 +32173,10 @@
     </row>
     <row r="46" ht="12.75" spans="3:5">
       <c r="C46" s="15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E46" s="15" t="s">
         <v>7</v>
@@ -32179,10 +32184,10 @@
     </row>
     <row r="47" ht="12.75" spans="3:5">
       <c r="C47" s="29" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E47" s="29" t="s">
         <v>20</v>
@@ -32225,23 +32230,23 @@
   <sheetData>
     <row r="1" ht="12.75" spans="1:5">
       <c r="A1" s="15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E1" s="16"/>
     </row>
     <row r="2" ht="18" spans="1:26">
       <c r="A2" s="17"/>
       <c r="B2" s="18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
@@ -32268,7 +32273,7 @@
     <row r="3" ht="12.75" spans="5:7">
       <c r="E3" s="16"/>
       <c r="G3" s="19" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" ht="12.75" spans="5:5">
@@ -32280,44 +32285,44 @@
     </row>
     <row r="6" ht="12.75" spans="2:5">
       <c r="B6" s="21" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" ht="12.75" spans="2:5">
       <c r="B7" s="21" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" ht="12.75" spans="2:5">
       <c r="B8" s="22" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" ht="12.75" spans="2:2">
@@ -35291,7 +35296,7 @@
     <row r="2" ht="18.75" spans="1:26">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -35321,7 +35326,7 @@
     <row r="3" ht="12.75" spans="1:26">
       <c r="A3" s="1"/>
       <c r="B3" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -35389,7 +35394,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" ht="12.75" spans="2:3">
@@ -35397,7 +35402,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" ht="12.75" spans="2:3">
@@ -35405,7 +35410,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" ht="12.75" spans="2:5">
@@ -35425,13 +35430,13 @@
         <v>14</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" ht="12.75" spans="2:5">
@@ -35439,13 +35444,13 @@
         <v>14</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>208</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="15" ht="12.75" spans="2:5">
@@ -35453,13 +35458,13 @@
         <v>14</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" ht="12.75" spans="2:5">
@@ -35467,13 +35472,13 @@
         <v>14</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" ht="12.75" spans="3:3">

--- a/Data/Input/Sapling Server Credentials.xlsx
+++ b/Data/Input/Sapling Server Credentials.xlsx
@@ -830,11 +830,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="mmm\ d"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="mmm\ d"/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -940,23 +940,41 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -976,23 +994,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1003,6 +1005,50 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1023,60 +1069,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1175,25 +1175,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1211,13 +1199,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1229,19 +1229,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1253,25 +1241,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1283,7 +1253,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1295,7 +1289,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1313,31 +1307,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1349,13 +1349,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1413,6 +1413,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1428,11 +1448,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1452,17 +1478,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1484,177 +1504,157 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1664,7 +1664,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1728,7 +1728,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2080,7 +2080,7 @@
   </sheetPr>
   <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -2265,7 +2265,7 @@
       <c r="F12" s="36"/>
       <c r="G12" s="36"/>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" ht="12.75" spans="2:7">
       <c r="B13" s="37" t="s">
         <v>12</v>
       </c>
@@ -2297,7 +2297,7 @@
       <c r="F14" s="36"/>
       <c r="G14" s="36"/>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" ht="12.75" spans="2:7">
       <c r="B15" s="39" t="s">
         <v>19</v>
       </c>
@@ -2640,7 +2640,7 @@
   </sheetPr>
   <dimension ref="A1:Z986"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A45" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -30396,7 +30396,7 @@
   <dimension ref="A1:Z35"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:E35"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -30830,8 +30830,8 @@
   </sheetPr>
   <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:E28"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -31227,8 +31227,8 @@
   </sheetPr>
   <dimension ref="A1:Z35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:E35"/>
+    <sheetView showGridLines="0" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>

--- a/Data/Input/Sapling Server Credentials.xlsx
+++ b/Data/Input/Sapling Server Credentials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11250" windowHeight="3015"/>
+    <workbookView windowWidth="11250" windowHeight="3015" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Ace" sheetId="1" r:id="rId1"/>
@@ -831,8 +831,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="mmm\ d"/>
   </numFmts>
@@ -940,33 +940,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -978,16 +968,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1009,15 +999,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1025,20 +1014,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1052,9 +1027,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1069,16 +1060,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1175,19 +1175,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1199,7 +1247,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1211,25 +1295,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1247,19 +1325,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1271,73 +1337,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1349,13 +1349,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1415,11 +1415,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1434,31 +1432,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1480,24 +1463,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1510,151 +1495,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2080,7 +2080,7 @@
   </sheetPr>
   <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -30395,7 +30395,7 @@
   </sheetPr>
   <dimension ref="A1:Z35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>

--- a/Data/Input/Sapling Server Credentials.xlsx
+++ b/Data/Input/Sapling Server Credentials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11250" windowHeight="3015" activeTab="2"/>
+    <workbookView windowWidth="12930" windowHeight="3495" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Ace" sheetId="1" r:id="rId1"/>
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214">
   <si>
     <t>ACE</t>
   </si>
@@ -482,6 +482,9 @@
   </si>
   <si>
     <t>super@spades.com</t>
+  </si>
+  <si>
+    <t>admin123!!</t>
   </si>
   <si>
     <t>Hamza (Sep 10)</t>
@@ -831,9 +834,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="mmm\ d"/>
   </numFmts>
   <fonts count="35">
@@ -940,44 +943,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -991,6 +973,36 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -998,8 +1010,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1013,23 +1042,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1044,29 +1057,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -1074,11 +1064,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1175,7 +1178,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1187,13 +1214,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1205,19 +1250,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1229,67 +1286,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1307,13 +1316,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1325,13 +1340,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1343,19 +1352,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1416,8 +1419,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1425,8 +1428,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1446,21 +1479,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1468,21 +1486,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1513,148 +1516,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -30395,7 +30398,7 @@
   </sheetPr>
   <dimension ref="A1:Z35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -30830,8 +30833,8 @@
   </sheetPr>
   <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -31026,7 +31029,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" ht="12.75" spans="2:5">
+    <row r="14" spans="2:5">
       <c r="B14" s="39" t="s">
         <v>16</v>
       </c>
@@ -31034,10 +31037,10 @@
         <v>99</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" ht="12.75" spans="2:5">
@@ -31051,7 +31054,7 @@
         <v>18</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" ht="12.75" spans="2:5">
@@ -31059,13 +31062,13 @@
         <v>7</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D16" s="38" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" ht="12.75" spans="2:5">
@@ -31073,10 +31076,10 @@
         <v>23</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E17" s="38" t="s">
         <v>98</v>
@@ -31087,10 +31090,10 @@
         <v>26</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E18" s="38" t="s">
         <v>98</v>
@@ -31119,10 +31122,10 @@
         <v>12</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E21" s="38" t="s">
         <v>98</v>
@@ -31133,13 +31136,13 @@
         <v>16</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D22" s="38" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:5">
@@ -31147,13 +31150,13 @@
         <v>19</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D23" s="38" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:5">
@@ -31161,13 +31164,13 @@
         <v>7</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D24" s="38" t="s">
         <v>18</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:5">
@@ -31175,10 +31178,10 @@
         <v>23</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E25" s="38" t="s">
         <v>98</v>
@@ -31189,10 +31192,10 @@
         <v>26</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E26" s="38" t="s">
         <v>98</v>
@@ -31274,7 +31277,7 @@
     <row r="2" ht="18.75" spans="1:26">
       <c r="A2" s="33"/>
       <c r="B2" s="34" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C2" s="33"/>
       <c r="D2" s="33"/>
@@ -31304,7 +31307,7 @@
     <row r="3" ht="12.75" spans="1:26">
       <c r="A3" s="33"/>
       <c r="B3" s="35" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
@@ -31372,7 +31375,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" ht="12.75" spans="2:3">
@@ -31380,7 +31383,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" ht="12.75" spans="2:3">
@@ -31388,7 +31391,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:5">
@@ -31414,13 +31417,13 @@
         <v>12</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D13" s="38" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" ht="12.75" spans="2:5">
@@ -31428,13 +31431,13 @@
         <v>16</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" ht="12.75" spans="2:5">
@@ -31445,10 +31448,10 @@
         <v>17</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" ht="12.75" spans="2:5">
@@ -31459,10 +31462,10 @@
         <v>72</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" ht="12.75" spans="2:5">
@@ -31470,13 +31473,13 @@
         <v>23</v>
       </c>
       <c r="C17" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" s="38" t="s">
         <v>124</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="E17" s="38" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" ht="12.75" spans="2:5">
@@ -31487,10 +31490,10 @@
         <v>66</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:5">
@@ -31522,7 +31525,7 @@
         <v>32</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" ht="12.75" spans="2:5">
@@ -31530,13 +31533,13 @@
         <v>16</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D22" s="38" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" ht="12.75" spans="2:5">
@@ -31544,13 +31547,13 @@
         <v>19</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D23" s="38" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" ht="12.75" spans="2:5">
@@ -31558,13 +31561,13 @@
         <v>7</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D24" s="38" t="s">
         <v>18</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" ht="12.75" spans="2:5">
@@ -31572,13 +31575,13 @@
         <v>23</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D25" s="38" t="s">
         <v>18</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" ht="12.75" spans="2:5">
@@ -31586,13 +31589,13 @@
         <v>26</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D26" s="38" t="s">
         <v>18</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:5">
@@ -31681,24 +31684,24 @@
   <sheetData>
     <row r="4" ht="12.75" spans="2:2">
       <c r="B4" s="27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" ht="12.75" spans="2:2">
       <c r="B6" s="29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" ht="12.75" spans="1:26">
       <c r="A8" s="30"/>
       <c r="B8" s="31" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C8" s="30"/>
       <c r="D8" s="30"/>
       <c r="E8" s="30"/>
       <c r="F8" s="31" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G8" s="30"/>
       <c r="H8" s="30"/>
@@ -31726,18 +31729,18 @@
     </row>
     <row r="10" ht="12.75" spans="2:2">
       <c r="B10" s="27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" ht="12.75" spans="2:4">
       <c r="B11" s="15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" ht="51" spans="2:6">
@@ -31751,17 +31754,17 @@
         <v>18</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" ht="12.75" spans="2:2">
       <c r="B14" s="27" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" ht="12.75" spans="2:2">
       <c r="B15" s="15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" ht="12.75" spans="2:2">
@@ -31772,7 +31775,7 @@
     <row r="18" ht="12.75" spans="1:26">
       <c r="A18" s="30"/>
       <c r="B18" s="31" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
@@ -31801,12 +31804,12 @@
     </row>
     <row r="20" ht="12.75" spans="2:2">
       <c r="B20" s="27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" ht="12.75" spans="2:3">
       <c r="B22" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>26</v>
@@ -31814,7 +31817,7 @@
     </row>
     <row r="23" ht="12.75" spans="2:3">
       <c r="B23" s="15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>7</v>
@@ -31822,7 +31825,7 @@
     </row>
     <row r="24" ht="12.75" spans="2:3">
       <c r="B24" s="15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>23</v>
@@ -31830,7 +31833,7 @@
     </row>
     <row r="25" ht="12.75" spans="2:3">
       <c r="B25" s="15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>16</v>
@@ -31838,13 +31841,13 @@
     </row>
     <row r="26" ht="12.75" spans="2:2">
       <c r="B26" s="15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" ht="12.75" spans="1:26">
       <c r="A28" s="30"/>
       <c r="B28" s="31" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
@@ -31873,12 +31876,12 @@
     </row>
     <row r="30" ht="12.75" spans="2:2">
       <c r="B30" s="27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" ht="12.75" spans="2:2">
       <c r="B31" s="15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" ht="12.75" spans="2:2">
@@ -31888,12 +31891,12 @@
     </row>
     <row r="34" ht="12.75" spans="2:2">
       <c r="B34" s="27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" ht="12.75" spans="2:2">
       <c r="B35" s="15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" ht="12.75" spans="2:2">
@@ -31904,7 +31907,7 @@
     <row r="38" ht="12.75" spans="1:26">
       <c r="A38" s="30"/>
       <c r="B38" s="31" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
@@ -31933,12 +31936,12 @@
     </row>
     <row r="40" ht="12.75" spans="2:2">
       <c r="B40" s="27" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" ht="12.75" spans="2:2">
       <c r="B41" s="15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" ht="12.75" spans="2:2">
@@ -31948,12 +31951,12 @@
     </row>
     <row r="44" ht="12.75" spans="2:2">
       <c r="B44" s="27" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" ht="12.75" spans="2:2">
       <c r="B45" s="15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" ht="12.75" spans="2:2">
@@ -31964,7 +31967,7 @@
     <row r="48" ht="12.75" spans="1:26">
       <c r="A48" s="30"/>
       <c r="B48" s="31" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C48" s="30"/>
       <c r="D48" s="30"/>
@@ -31993,12 +31996,12 @@
     </row>
     <row r="50" ht="12.75" spans="2:2">
       <c r="B50" s="27" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" ht="12.75" spans="2:2">
       <c r="B51" s="15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" ht="12.75" spans="2:2">
@@ -32047,19 +32050,19 @@
     <row r="2" ht="18" spans="1:27">
       <c r="A2" s="17"/>
       <c r="B2" s="18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
@@ -32085,12 +32088,12 @@
     </row>
     <row r="3" ht="12.75" spans="8:8">
       <c r="H3" s="19" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" ht="12.75" spans="2:6">
       <c r="B4" s="26" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>17</v>
@@ -32099,39 +32102,39 @@
         <v>18</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F4" s="15"/>
     </row>
     <row r="5" ht="12.75" spans="2:6">
       <c r="B5" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="C5" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>167</v>
-      </c>
       <c r="F5" s="28" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" ht="12.75" spans="3:6">
       <c r="C6" s="28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" ht="12.75" spans="3:5">
@@ -32139,7 +32142,7 @@
         <v>72</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>7</v>
@@ -32147,10 +32150,10 @@
     </row>
     <row r="8" ht="12.75" spans="3:5">
       <c r="C8" s="15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>7</v>
@@ -32158,10 +32161,10 @@
     </row>
     <row r="9" ht="12.75" spans="3:5">
       <c r="C9" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>7</v>
@@ -32180,29 +32183,29 @@
     </row>
     <row r="12" ht="12.75" spans="2:6">
       <c r="B12" s="26" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>16</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" ht="12.75" spans="2:2">
       <c r="B13" s="27" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" ht="12.75" spans="2:5">
       <c r="B19" s="26" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>17</v>
@@ -32211,18 +32214,18 @@
         <v>18</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" ht="12.75" spans="2:5">
       <c r="B20" s="27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>72</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>7</v>
@@ -32230,10 +32233,10 @@
     </row>
     <row r="21" ht="12.75" spans="3:5">
       <c r="C21" s="15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>7</v>
@@ -32241,10 +32244,10 @@
     </row>
     <row r="22" ht="12.75" spans="3:5">
       <c r="C22" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>7</v>
@@ -32255,7 +32258,7 @@
         <v>66</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E23" s="15" t="s">
         <v>26</v>
@@ -32263,27 +32266,27 @@
     </row>
     <row r="25" ht="12.75" spans="2:5">
       <c r="B25" s="26" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" ht="12.75" spans="2:5">
       <c r="B26" s="27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>72</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E26" s="15" t="s">
         <v>7</v>
@@ -32291,10 +32294,10 @@
     </row>
     <row r="27" ht="12.75" spans="3:5">
       <c r="C27" s="15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>7</v>
@@ -32302,10 +32305,10 @@
     </row>
     <row r="28" ht="12.75" spans="3:5">
       <c r="C28" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E28" s="15" t="s">
         <v>7</v>
@@ -32313,10 +32316,10 @@
     </row>
     <row r="29" ht="12.75" spans="3:5">
       <c r="C29" s="29" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E29" s="29" t="s">
         <v>16</v>
@@ -32324,27 +32327,27 @@
     </row>
     <row r="31" ht="12.75" spans="2:5">
       <c r="B31" s="26" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" ht="12.75" spans="2:5">
       <c r="B32" s="27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>72</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E32" s="15" t="s">
         <v>7</v>
@@ -32352,10 +32355,10 @@
     </row>
     <row r="33" ht="12.75" spans="3:5">
       <c r="C33" s="15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E33" s="15" t="s">
         <v>7</v>
@@ -32363,10 +32366,10 @@
     </row>
     <row r="34" ht="12.75" spans="3:5">
       <c r="C34" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E34" s="15" t="s">
         <v>7</v>
@@ -32374,10 +32377,10 @@
     </row>
     <row r="35" ht="12.75" spans="3:5">
       <c r="C35" s="29" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E35" s="29" t="s">
         <v>16</v>
@@ -32385,27 +32388,27 @@
     </row>
     <row r="37" ht="12.75" spans="2:5">
       <c r="B37" s="26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" ht="12.75" spans="2:5">
       <c r="B38" s="27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>72</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E38" s="15" t="s">
         <v>7</v>
@@ -32413,10 +32416,10 @@
     </row>
     <row r="39" ht="12.75" spans="3:5">
       <c r="C39" s="15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>7</v>
@@ -32424,10 +32427,10 @@
     </row>
     <row r="40" ht="12.75" spans="3:5">
       <c r="C40" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E40" s="15" t="s">
         <v>7</v>
@@ -32435,10 +32438,10 @@
     </row>
     <row r="41" ht="12.75" spans="3:5">
       <c r="C41" s="29" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E41" s="29" t="s">
         <v>16</v>
@@ -32446,27 +32449,27 @@
     </row>
     <row r="43" ht="12.75" spans="2:5">
       <c r="B43" s="26" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" ht="12.75" spans="2:5">
       <c r="B44" s="27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>72</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E44" s="15" t="s">
         <v>7</v>
@@ -32474,10 +32477,10 @@
     </row>
     <row r="45" ht="12.75" spans="3:5">
       <c r="C45" s="15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E45" s="15" t="s">
         <v>7</v>
@@ -32485,10 +32488,10 @@
     </row>
     <row r="46" ht="12.75" spans="3:5">
       <c r="C46" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E46" s="15" t="s">
         <v>7</v>
@@ -32496,10 +32499,10 @@
     </row>
     <row r="47" ht="12.75" spans="3:5">
       <c r="C47" s="29" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E47" s="29" t="s">
         <v>16</v>
@@ -32542,23 +32545,23 @@
   <sheetData>
     <row r="1" ht="12.75" spans="1:5">
       <c r="A1" s="15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E1" s="16"/>
     </row>
     <row r="2" ht="18" spans="1:26">
       <c r="A2" s="17"/>
       <c r="B2" s="18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
@@ -32585,7 +32588,7 @@
     <row r="3" ht="12.75" spans="5:7">
       <c r="E3" s="16"/>
       <c r="G3" s="19" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" ht="12.75" spans="5:5">
@@ -32597,44 +32600,44 @@
     </row>
     <row r="6" ht="12.75" spans="2:5">
       <c r="B6" s="21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" ht="12.75" spans="2:5">
       <c r="B7" s="21" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" ht="12.75" spans="2:5">
       <c r="B8" s="22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" ht="12.75" spans="2:2">
@@ -35608,7 +35611,7 @@
     <row r="2" ht="18.75" spans="1:26">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -35638,7 +35641,7 @@
     <row r="3" ht="12.75" spans="1:26">
       <c r="A3" s="1"/>
       <c r="B3" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -35706,7 +35709,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" ht="12.75" spans="2:3">
@@ -35714,7 +35717,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" ht="12.75" spans="2:3">
@@ -35722,7 +35725,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" ht="12.75" spans="2:5">
@@ -35742,13 +35745,13 @@
         <v>12</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" ht="12.75" spans="2:5">
@@ -35756,13 +35759,13 @@
         <v>12</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>207</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="15" ht="12.75" spans="2:5">
@@ -35770,13 +35773,13 @@
         <v>12</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" ht="12.75" spans="2:5">
@@ -35784,13 +35787,13 @@
         <v>12</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" ht="12.75" spans="3:3">

--- a/Data/Input/Sapling Server Credentials.xlsx
+++ b/Data/Input/Sapling Server Credentials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12930" windowHeight="3495" activeTab="3"/>
+    <workbookView windowWidth="12930" windowHeight="3495"/>
   </bookViews>
   <sheets>
     <sheet name="Ace" sheetId="1" r:id="rId1"/>
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213">
   <si>
     <t>ACE</t>
   </si>
@@ -235,7 +235,7 @@
     <t>Super User</t>
   </si>
   <si>
-    <t>sarah@test.com</t>
+    <t>nick@ace.com</t>
   </si>
   <si>
     <t>admin123!</t>
@@ -263,9 +263,6 @@
   </si>
   <si>
     <t>Employee</t>
-  </si>
-  <si>
-    <t>nick@ace.com</t>
   </si>
   <si>
     <t>m5Uva+Xw</t>
@@ -484,9 +481,6 @@
     <t>super@spades.com</t>
   </si>
   <si>
-    <t>admin123!!</t>
-  </si>
-  <si>
     <t>Hamza (Sep 10)</t>
   </si>
   <si>
@@ -554,6 +548,9 @@
   </si>
   <si>
     <t>priya Feb 15</t>
+  </si>
+  <si>
+    <t>sarah@test.com</t>
   </si>
   <si>
     <t>AB   Dec 2</t>
@@ -833,10 +830,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="mmm\ d"/>
   </numFmts>
   <fonts count="35">
@@ -949,19 +946,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -973,15 +991,31 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -996,23 +1030,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1028,29 +1046,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1065,21 +1068,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1178,7 +1175,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1190,13 +1265,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1208,7 +1313,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1220,139 +1349,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1416,11 +1413,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1428,8 +1431,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1464,17 +1467,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1516,145 +1513,145 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="41" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2083,8 +2080,8 @@
   </sheetPr>
   <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -2284,11 +2281,11 @@
       <c r="F13" s="36"/>
       <c r="G13" s="36"/>
     </row>
-    <row r="14" ht="15" spans="2:7">
+    <row r="14" ht="12.75" spans="2:7">
       <c r="B14" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="38" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="38" t="s">
@@ -2353,10 +2350,10 @@
         <v>26</v>
       </c>
       <c r="C18" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="38" t="s">
         <v>27</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>28</v>
       </c>
       <c r="E18" s="38" t="s">
         <v>15</v>
@@ -2375,10 +2372,10 @@
     <row r="20" ht="12.75" spans="2:7">
       <c r="B20" s="36"/>
       <c r="C20" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="37" t="s">
         <v>29</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>30</v>
       </c>
       <c r="E20" s="37" t="s">
         <v>11</v>
@@ -2391,10 +2388,10 @@
         <v>12</v>
       </c>
       <c r="C21" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="38" t="s">
         <v>31</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>32</v>
       </c>
       <c r="E21" s="38" t="s">
         <v>15</v>
@@ -2407,7 +2404,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" s="38" t="s">
         <v>18</v>
@@ -2423,7 +2420,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" s="38" t="s">
         <v>18</v>
@@ -2439,10 +2436,10 @@
         <v>7</v>
       </c>
       <c r="C24" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="38" t="s">
         <v>34</v>
-      </c>
-      <c r="D24" s="38" t="s">
-        <v>35</v>
       </c>
       <c r="E24" s="38" t="s">
         <v>15</v>
@@ -2455,10 +2452,10 @@
         <v>23</v>
       </c>
       <c r="C25" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="38" t="s">
         <v>36</v>
-      </c>
-      <c r="D25" s="38" t="s">
-        <v>37</v>
       </c>
       <c r="E25" s="38" t="s">
         <v>15</v>
@@ -2471,10 +2468,10 @@
         <v>26</v>
       </c>
       <c r="C26" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="38" t="s">
         <v>38</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>39</v>
       </c>
       <c r="E26" s="38" t="s">
         <v>15</v>
@@ -2493,10 +2490,10 @@
     <row r="28" customHeight="1" spans="2:7">
       <c r="B28" s="36"/>
       <c r="C28" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="37" t="s">
         <v>40</v>
-      </c>
-      <c r="D28" s="37" t="s">
-        <v>41</v>
       </c>
       <c r="E28" s="37" t="s">
         <v>11</v>
@@ -2509,10 +2506,10 @@
         <v>12</v>
       </c>
       <c r="C29" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="38" t="s">
         <v>42</v>
-      </c>
-      <c r="D29" s="38" t="s">
-        <v>43</v>
       </c>
       <c r="E29" s="38" t="s">
         <v>15</v>
@@ -2525,10 +2522,10 @@
         <v>16</v>
       </c>
       <c r="C30" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="38" t="s">
         <v>44</v>
-      </c>
-      <c r="D30" s="38" t="s">
-        <v>45</v>
       </c>
       <c r="E30" s="38" t="s">
         <v>15</v>
@@ -2541,13 +2538,13 @@
         <v>19</v>
       </c>
       <c r="C31" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="38" t="s">
+      <c r="E31" s="38" t="s">
         <v>47</v>
-      </c>
-      <c r="E31" s="38" t="s">
-        <v>48</v>
       </c>
       <c r="F31" s="36"/>
       <c r="G31" s="36"/>
@@ -2557,7 +2554,7 @@
         <v>7</v>
       </c>
       <c r="C32" s="38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D32" s="38" t="s">
         <v>18</v>
@@ -2573,10 +2570,10 @@
         <v>23</v>
       </c>
       <c r="C33" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="38" t="s">
         <v>50</v>
-      </c>
-      <c r="D33" s="38" t="s">
-        <v>51</v>
       </c>
       <c r="E33" s="38" t="s">
         <v>15</v>
@@ -2589,10 +2586,10 @@
         <v>26</v>
       </c>
       <c r="C34" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="38" t="s">
         <v>52</v>
-      </c>
-      <c r="D34" s="38" t="s">
-        <v>53</v>
       </c>
       <c r="E34" s="38" t="s">
         <v>15</v>
@@ -2628,7 +2625,6 @@
   <hyperlinks>
     <hyperlink ref="C9" r:id="rId3" display="https://ace.shr-eng.com/"/>
     <hyperlink ref="C10" r:id="rId4" display="https://ace.shr-eng.com/admin/login"/>
-    <hyperlink ref="C14" r:id="rId5" display="sarah@test.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -2643,7 +2639,7 @@
   </sheetPr>
   <dimension ref="A1:Z986"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -2690,7 +2686,7 @@
     <row r="2" ht="18.75" spans="1:26">
       <c r="A2" s="45"/>
       <c r="B2" s="46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="45"/>
@@ -2720,7 +2716,7 @@
     <row r="3" ht="12.75" spans="1:26">
       <c r="A3" s="45"/>
       <c r="B3" s="45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="45"/>
       <c r="D3" s="45"/>
@@ -2841,7 +2837,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="47"/>
       <c r="E7" s="47"/>
@@ -2901,7 +2897,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="47"/>
       <c r="E9" s="47"/>
@@ -3026,13 +3022,13 @@
         <v>12</v>
       </c>
       <c r="C13" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="56" t="s">
-        <v>32</v>
-      </c>
       <c r="E13" s="56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F13" s="54"/>
       <c r="G13" s="36"/>
@@ -3060,13 +3056,13 @@
         <v>16</v>
       </c>
       <c r="C14" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="56" t="s">
-        <v>60</v>
-      </c>
       <c r="E14" s="56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" s="54"/>
       <c r="G14" s="36"/>
@@ -3094,13 +3090,13 @@
         <v>19</v>
       </c>
       <c r="C15" s="56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="56" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F15" s="54"/>
       <c r="G15" s="36"/>
@@ -3128,13 +3124,13 @@
         <v>7</v>
       </c>
       <c r="C16" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="56" t="s">
-        <v>63</v>
-      </c>
       <c r="E16" s="56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F16" s="54"/>
       <c r="G16" s="36"/>
@@ -3162,13 +3158,13 @@
         <v>23</v>
       </c>
       <c r="C17" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="56" t="s">
-        <v>65</v>
-      </c>
       <c r="E17" s="56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F17" s="54"/>
       <c r="G17" s="36"/>
@@ -3196,13 +3192,13 @@
         <v>26</v>
       </c>
       <c r="C18" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="56" t="s">
-        <v>67</v>
-      </c>
       <c r="E18" s="56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F18" s="54"/>
       <c r="G18" s="36"/>
@@ -3256,10 +3252,10 @@
       <c r="A20" s="47"/>
       <c r="B20" s="54"/>
       <c r="C20" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="55" t="s">
         <v>29</v>
-      </c>
-      <c r="D20" s="55" t="s">
-        <v>30</v>
       </c>
       <c r="E20" s="55" t="s">
         <v>11</v>
@@ -3292,13 +3288,13 @@
         <v>12</v>
       </c>
       <c r="C21" s="56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="56" t="s">
         <v>18</v>
       </c>
       <c r="E21" s="56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F21" s="54"/>
       <c r="G21" s="54"/>
@@ -3328,13 +3324,13 @@
         <v>16</v>
       </c>
       <c r="C22" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="56" t="s">
-        <v>70</v>
-      </c>
       <c r="E22" s="56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F22" s="54"/>
       <c r="G22" s="54"/>
@@ -3364,13 +3360,13 @@
         <v>19</v>
       </c>
       <c r="C23" s="56" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E23" s="56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F23" s="54"/>
       <c r="G23" s="54"/>
@@ -3400,13 +3396,13 @@
         <v>7</v>
       </c>
       <c r="C24" s="56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="56" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E24" s="56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F24" s="54"/>
       <c r="G24" s="54"/>
@@ -3436,13 +3432,13 @@
         <v>23</v>
       </c>
       <c r="C25" s="56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D25" s="56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E25" s="56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F25" s="54"/>
       <c r="G25" s="54"/>
@@ -3472,13 +3468,13 @@
         <v>26</v>
       </c>
       <c r="C26" s="56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D26" s="56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E26" s="56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F26" s="54"/>
       <c r="G26" s="54"/>
@@ -30398,7 +30394,7 @@
   </sheetPr>
   <dimension ref="A1:Z35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -30445,7 +30441,7 @@
     <row r="2" ht="18.75" spans="1:26">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -30475,7 +30471,7 @@
     <row r="3" ht="12.75" spans="1:26">
       <c r="A3" s="1"/>
       <c r="B3" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -30540,10 +30536,10 @@
     </row>
     <row r="7" ht="12.75" spans="2:3">
       <c r="B7" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="9" ht="12.75" spans="2:3">
@@ -30551,7 +30547,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" ht="12.75" spans="2:3">
@@ -30559,13 +30555,13 @@
         <v>7</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" ht="12.75" spans="2:5">
       <c r="B12" s="43"/>
       <c r="C12" s="37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="37" t="s">
         <v>10</v>
@@ -30579,13 +30575,13 @@
         <v>12</v>
       </c>
       <c r="C13" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="38" t="s">
-        <v>32</v>
-      </c>
       <c r="E13" s="38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" ht="15" spans="2:5">
@@ -30593,13 +30589,13 @@
         <v>16</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D14" s="38" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" ht="12.75" spans="2:5">
@@ -30607,13 +30603,13 @@
         <v>19</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D15" s="38" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" ht="12.75" spans="2:5">
@@ -30621,13 +30617,13 @@
         <v>7</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D16" s="38" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" ht="12.75" spans="2:5">
@@ -30635,13 +30631,13 @@
         <v>23</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D17" s="38" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" ht="12.75" spans="2:5">
@@ -30649,13 +30645,13 @@
         <v>26</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D18" s="38" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:5">
@@ -30667,10 +30663,10 @@
     <row r="20" customHeight="1" spans="2:5">
       <c r="B20" s="36"/>
       <c r="C20" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="37" t="s">
         <v>29</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>30</v>
       </c>
       <c r="E20" s="37" t="s">
         <v>11</v>
@@ -30681,13 +30677,13 @@
         <v>12</v>
       </c>
       <c r="C21" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="38" t="s">
         <v>86</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="38" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:5">
@@ -30695,13 +30691,13 @@
         <v>16</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D22" s="38" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:5">
@@ -30709,13 +30705,13 @@
         <v>19</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D23" s="38" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:5">
@@ -30723,13 +30719,13 @@
         <v>7</v>
       </c>
       <c r="C24" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="38" t="s">
-        <v>90</v>
-      </c>
       <c r="E24" s="38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:5">
@@ -30737,13 +30733,13 @@
         <v>23</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D25" s="38" t="s">
         <v>18</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:5">
@@ -30751,13 +30747,13 @@
         <v>26</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D26" s="38" t="s">
         <v>18</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:5">
@@ -30833,8 +30829,8 @@
   </sheetPr>
   <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -30880,7 +30876,7 @@
     <row r="2" ht="18.75" spans="1:26">
       <c r="A2" s="40"/>
       <c r="B2" s="41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
@@ -30910,7 +30906,7 @@
     <row r="3" ht="12.75" spans="1:26">
       <c r="A3" s="40"/>
       <c r="B3" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
@@ -30978,7 +30974,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" ht="12.75" spans="2:3">
@@ -30986,7 +30982,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" ht="12.75" spans="2:3">
@@ -30994,7 +30990,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:5">
@@ -31020,27 +31016,27 @@
         <v>12</v>
       </c>
       <c r="C13" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="38" t="s">
-        <v>32</v>
-      </c>
       <c r="E13" s="38" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" ht="12.75" spans="2:5">
       <c r="B14" s="39" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="38" t="s">
         <v>99</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="15" ht="12.75" spans="2:5">
@@ -31048,13 +31044,13 @@
         <v>19</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D15" s="38" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" ht="12.75" spans="2:5">
@@ -31062,13 +31058,13 @@
         <v>7</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D16" s="38" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" ht="12.75" spans="2:5">
@@ -31076,13 +31072,13 @@
         <v>23</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" ht="12.75" spans="2:5">
@@ -31090,13 +31086,13 @@
         <v>26</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:5">
@@ -31108,10 +31104,10 @@
     <row r="20" customHeight="1" spans="2:5">
       <c r="B20" s="36"/>
       <c r="C20" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="37" t="s">
         <v>29</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>30</v>
       </c>
       <c r="E20" s="37" t="s">
         <v>11</v>
@@ -31122,13 +31118,13 @@
         <v>12</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:5">
@@ -31136,13 +31132,13 @@
         <v>16</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D22" s="38" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:5">
@@ -31150,13 +31146,13 @@
         <v>19</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D23" s="38" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:5">
@@ -31164,13 +31160,13 @@
         <v>7</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D24" s="38" t="s">
         <v>18</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:5">
@@ -31178,13 +31174,13 @@
         <v>23</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:5">
@@ -31192,13 +31188,13 @@
         <v>26</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:5">
@@ -31277,7 +31273,7 @@
     <row r="2" ht="18.75" spans="1:26">
       <c r="A2" s="33"/>
       <c r="B2" s="34" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C2" s="33"/>
       <c r="D2" s="33"/>
@@ -31307,7 +31303,7 @@
     <row r="3" ht="12.75" spans="1:26">
       <c r="A3" s="33"/>
       <c r="B3" s="35" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
@@ -31375,7 +31371,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" ht="12.75" spans="2:3">
@@ -31383,7 +31379,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" ht="12.75" spans="2:3">
@@ -31391,7 +31387,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:5">
@@ -31417,13 +31413,13 @@
         <v>12</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" ht="12.75" spans="2:5">
@@ -31431,13 +31427,13 @@
         <v>16</v>
       </c>
       <c r="C14" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" s="38" t="s">
         <v>121</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="15" ht="12.75" spans="2:5">
@@ -31445,13 +31441,13 @@
         <v>19</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" ht="12.75" spans="2:5">
@@ -31459,13 +31455,13 @@
         <v>7</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" ht="12.75" spans="2:5">
@@ -31473,13 +31469,13 @@
         <v>23</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" ht="12.75" spans="2:5">
@@ -31487,13 +31483,13 @@
         <v>26</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:5">
@@ -31505,10 +31501,10 @@
     <row r="20" ht="12.75" spans="2:5">
       <c r="B20" s="36"/>
       <c r="C20" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="37" t="s">
         <v>29</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>30</v>
       </c>
       <c r="E20" s="37" t="s">
         <v>11</v>
@@ -31519,13 +31515,13 @@
         <v>12</v>
       </c>
       <c r="C21" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="38" t="s">
-        <v>32</v>
-      </c>
       <c r="E21" s="38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" ht="12.75" spans="2:5">
@@ -31533,13 +31529,13 @@
         <v>16</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D22" s="38" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" ht="12.75" spans="2:5">
@@ -31547,13 +31543,13 @@
         <v>19</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D23" s="38" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" ht="12.75" spans="2:5">
@@ -31561,13 +31557,13 @@
         <v>7</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D24" s="38" t="s">
         <v>18</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" ht="12.75" spans="2:5">
@@ -31575,13 +31571,13 @@
         <v>23</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D25" s="38" t="s">
         <v>18</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" ht="12.75" spans="2:5">
@@ -31589,13 +31585,13 @@
         <v>26</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D26" s="38" t="s">
         <v>18</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:5">
@@ -31684,24 +31680,24 @@
   <sheetData>
     <row r="4" ht="12.75" spans="2:2">
       <c r="B4" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" ht="12.75" spans="2:2">
       <c r="B6" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" ht="12.75" spans="1:26">
       <c r="A8" s="30"/>
       <c r="B8" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C8" s="30"/>
       <c r="D8" s="30"/>
       <c r="E8" s="30"/>
       <c r="F8" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G8" s="30"/>
       <c r="H8" s="30"/>
@@ -31729,18 +31725,18 @@
     </row>
     <row r="10" ht="12.75" spans="2:2">
       <c r="B10" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" ht="12.75" spans="2:4">
       <c r="B11" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="D11" s="15" t="s">
         <v>138</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="12" ht="51" spans="2:6">
@@ -31754,17 +31750,17 @@
         <v>18</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" ht="12.75" spans="2:2">
       <c r="B14" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" ht="12.75" spans="2:2">
       <c r="B15" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" ht="12.75" spans="2:2">
@@ -31775,7 +31771,7 @@
     <row r="18" ht="12.75" spans="1:26">
       <c r="A18" s="30"/>
       <c r="B18" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
@@ -31804,12 +31800,12 @@
     </row>
     <row r="20" ht="12.75" spans="2:2">
       <c r="B20" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" ht="12.75" spans="2:3">
       <c r="B22" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>26</v>
@@ -31817,7 +31813,7 @@
     </row>
     <row r="23" ht="12.75" spans="2:3">
       <c r="B23" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>7</v>
@@ -31825,7 +31821,7 @@
     </row>
     <row r="24" ht="12.75" spans="2:3">
       <c r="B24" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>23</v>
@@ -31833,7 +31829,7 @@
     </row>
     <row r="25" ht="12.75" spans="2:3">
       <c r="B25" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>16</v>
@@ -31841,13 +31837,13 @@
     </row>
     <row r="26" ht="12.75" spans="2:2">
       <c r="B26" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" ht="12.75" spans="1:26">
       <c r="A28" s="30"/>
       <c r="B28" s="31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
@@ -31876,12 +31872,12 @@
     </row>
     <row r="30" ht="12.75" spans="2:2">
       <c r="B30" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" ht="12.75" spans="2:2">
       <c r="B31" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" ht="12.75" spans="2:2">
@@ -31891,12 +31887,12 @@
     </row>
     <row r="34" ht="12.75" spans="2:2">
       <c r="B34" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" ht="12.75" spans="2:2">
       <c r="B35" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" ht="12.75" spans="2:2">
@@ -31907,7 +31903,7 @@
     <row r="38" ht="12.75" spans="1:26">
       <c r="A38" s="30"/>
       <c r="B38" s="31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
@@ -31936,12 +31932,12 @@
     </row>
     <row r="40" ht="12.75" spans="2:2">
       <c r="B40" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" ht="12.75" spans="2:2">
       <c r="B41" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" ht="12.75" spans="2:2">
@@ -31951,12 +31947,12 @@
     </row>
     <row r="44" ht="12.75" spans="2:2">
       <c r="B44" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" ht="12.75" spans="2:2">
       <c r="B45" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" ht="12.75" spans="2:2">
@@ -31967,7 +31963,7 @@
     <row r="48" ht="12.75" spans="1:26">
       <c r="A48" s="30"/>
       <c r="B48" s="31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C48" s="30"/>
       <c r="D48" s="30"/>
@@ -31996,12 +31992,12 @@
     </row>
     <row r="50" ht="12.75" spans="2:2">
       <c r="B50" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" ht="12.75" spans="2:2">
       <c r="B51" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" ht="12.75" spans="2:2">
@@ -32050,19 +32046,19 @@
     <row r="2" ht="18" spans="1:27">
       <c r="A2" s="17"/>
       <c r="B2" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="D2" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="E2" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="F2" s="18" t="s">
         <v>164</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>165</v>
       </c>
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
@@ -32088,61 +32084,61 @@
     </row>
     <row r="3" ht="12.75" spans="8:8">
       <c r="H3" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" ht="12.75" spans="2:6">
       <c r="B4" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F4" s="15"/>
     </row>
     <row r="5" ht="12.75" spans="2:6">
       <c r="B5" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="D5" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="E5" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" s="28" t="s">
         <v>171</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="6" ht="12.75" spans="3:6">
       <c r="C6" s="28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" ht="12.75" spans="3:5">
       <c r="C7" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>7</v>
@@ -32150,10 +32146,10 @@
     </row>
     <row r="8" ht="12.75" spans="3:5">
       <c r="C8" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>7</v>
@@ -32161,10 +32157,10 @@
     </row>
     <row r="9" ht="12.75" spans="3:5">
       <c r="C9" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>7</v>
@@ -32172,7 +32168,7 @@
     </row>
     <row r="10" ht="12.75" spans="3:5">
       <c r="C10" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>18</v>
@@ -32183,49 +32179,49 @@
     </row>
     <row r="12" ht="12.75" spans="2:6">
       <c r="B12" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>176</v>
-      </c>
       <c r="D12" s="28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>16</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" ht="12.75" spans="2:2">
       <c r="B13" s="27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" ht="12.75" spans="2:5">
       <c r="B19" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" ht="12.75" spans="2:5">
       <c r="B20" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>7</v>
@@ -32233,10 +32229,10 @@
     </row>
     <row r="21" ht="12.75" spans="3:5">
       <c r="C21" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>7</v>
@@ -32244,10 +32240,10 @@
     </row>
     <row r="22" ht="12.75" spans="3:5">
       <c r="C22" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>7</v>
@@ -32255,10 +32251,10 @@
     </row>
     <row r="23" ht="12.75" spans="3:5">
       <c r="C23" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E23" s="15" t="s">
         <v>26</v>
@@ -32266,27 +32262,27 @@
     </row>
     <row r="25" ht="12.75" spans="2:5">
       <c r="B25" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" ht="12.75" spans="2:5">
       <c r="B26" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E26" s="15" t="s">
         <v>7</v>
@@ -32294,10 +32290,10 @@
     </row>
     <row r="27" ht="12.75" spans="3:5">
       <c r="C27" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>7</v>
@@ -32305,10 +32301,10 @@
     </row>
     <row r="28" ht="12.75" spans="3:5">
       <c r="C28" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E28" s="15" t="s">
         <v>7</v>
@@ -32316,10 +32312,10 @@
     </row>
     <row r="29" ht="12.75" spans="3:5">
       <c r="C29" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E29" s="29" t="s">
         <v>16</v>
@@ -32327,27 +32323,27 @@
     </row>
     <row r="31" ht="12.75" spans="2:5">
       <c r="B31" s="26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" ht="12.75" spans="2:5">
       <c r="B32" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E32" s="15" t="s">
         <v>7</v>
@@ -32355,10 +32351,10 @@
     </row>
     <row r="33" ht="12.75" spans="3:5">
       <c r="C33" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E33" s="15" t="s">
         <v>7</v>
@@ -32366,10 +32362,10 @@
     </row>
     <row r="34" ht="12.75" spans="3:5">
       <c r="C34" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E34" s="15" t="s">
         <v>7</v>
@@ -32377,10 +32373,10 @@
     </row>
     <row r="35" ht="12.75" spans="3:5">
       <c r="C35" s="29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E35" s="29" t="s">
         <v>16</v>
@@ -32388,27 +32384,27 @@
     </row>
     <row r="37" ht="12.75" spans="2:5">
       <c r="B37" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" ht="12.75" spans="2:5">
       <c r="B38" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E38" s="15" t="s">
         <v>7</v>
@@ -32416,10 +32412,10 @@
     </row>
     <row r="39" ht="12.75" spans="3:5">
       <c r="C39" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>7</v>
@@ -32427,10 +32423,10 @@
     </row>
     <row r="40" ht="12.75" spans="3:5">
       <c r="C40" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E40" s="15" t="s">
         <v>7</v>
@@ -32438,10 +32434,10 @@
     </row>
     <row r="41" ht="12.75" spans="3:5">
       <c r="C41" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E41" s="29" t="s">
         <v>16</v>
@@ -32449,27 +32445,27 @@
     </row>
     <row r="43" ht="12.75" spans="2:5">
       <c r="B43" s="26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" ht="12.75" spans="2:5">
       <c r="B44" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E44" s="15" t="s">
         <v>7</v>
@@ -32477,10 +32473,10 @@
     </row>
     <row r="45" ht="12.75" spans="3:5">
       <c r="C45" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E45" s="15" t="s">
         <v>7</v>
@@ -32488,10 +32484,10 @@
     </row>
     <row r="46" ht="12.75" spans="3:5">
       <c r="C46" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E46" s="15" t="s">
         <v>7</v>
@@ -32499,10 +32495,10 @@
     </row>
     <row r="47" ht="12.75" spans="3:5">
       <c r="C47" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E47" s="29" t="s">
         <v>16</v>
@@ -32545,23 +32541,23 @@
   <sheetData>
     <row r="1" ht="12.75" spans="1:5">
       <c r="A1" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E1" s="16"/>
     </row>
     <row r="2" ht="18" spans="1:26">
       <c r="A2" s="17"/>
       <c r="B2" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="D2" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>163</v>
-      </c>
       <c r="E2" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
@@ -32588,7 +32584,7 @@
     <row r="3" ht="12.75" spans="5:7">
       <c r="E3" s="16"/>
       <c r="G3" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" ht="12.75" spans="5:5">
@@ -32600,44 +32596,44 @@
     </row>
     <row r="6" ht="12.75" spans="2:5">
       <c r="B6" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="D6" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="D6" s="23" t="s">
-        <v>191</v>
-      </c>
       <c r="E6" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" ht="12.75" spans="2:5">
       <c r="B7" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="D7" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="E7" s="15" t="s">
         <v>194</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="8" ht="12.75" spans="2:5">
       <c r="B8" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="C8" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="D8" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="E8" s="24" t="s">
         <v>198</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="9" ht="12.75" spans="2:2">
@@ -35611,7 +35607,7 @@
     <row r="2" ht="18.75" spans="1:26">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -35641,7 +35637,7 @@
     <row r="3" ht="12.75" spans="1:26">
       <c r="A3" s="1"/>
       <c r="B3" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -35709,7 +35705,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" ht="12.75" spans="2:3">
@@ -35717,7 +35713,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" ht="12.75" spans="2:3">
@@ -35725,7 +35721,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" ht="12.75" spans="2:5">
@@ -35745,13 +35741,13 @@
         <v>12</v>
       </c>
       <c r="C13" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="E13" s="12" t="s">
         <v>206</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="14" ht="12.75" spans="2:5">
@@ -35759,13 +35755,13 @@
         <v>12</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>209</v>
-      </c>
       <c r="E14" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" ht="12.75" spans="2:5">
@@ -35773,13 +35769,13 @@
         <v>12</v>
       </c>
       <c r="C15" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>211</v>
-      </c>
       <c r="E15" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" ht="12.75" spans="2:5">
@@ -35787,13 +35783,13 @@
         <v>12</v>
       </c>
       <c r="C16" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>213</v>
-      </c>
       <c r="E16" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" ht="12.75" spans="3:3">

--- a/Data/Input/Sapling Server Credentials.xlsx
+++ b/Data/Input/Sapling Server Credentials.xlsx
@@ -235,7 +235,7 @@
     <t>Super User</t>
   </si>
   <si>
-    <t>nick@ace.com</t>
+    <t>sarah@test.com</t>
   </si>
   <si>
     <t>admin123!</t>
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t>Employee</t>
+  </si>
+  <si>
+    <t>nick@ace.com</t>
   </si>
   <si>
     <t>m5Uva+Xw</t>
@@ -550,9 +553,6 @@
     <t>priya Feb 15</t>
   </si>
   <si>
-    <t>sarah@test.com</t>
-  </si>
-  <si>
     <t>AB   Dec 2</t>
   </si>
   <si>
@@ -830,11 +830,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="mmm\ d"/>
+    <numFmt numFmtId="176" formatCode="mmm\ d"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -940,14 +940,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -967,8 +968,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -983,16 +1036,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1013,32 +1067,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1047,36 +1077,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1175,7 +1175,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1187,157 +1211,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1350,6 +1224,132 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1414,16 +1414,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1452,17 +1467,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1470,8 +1479,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1486,175 +1510,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="41" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="41" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1664,7 +1664,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1728,7 +1728,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2081,7 +2081,7 @@
   <dimension ref="A1:Z37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -2265,7 +2265,7 @@
       <c r="F12" s="36"/>
       <c r="G12" s="36"/>
     </row>
-    <row r="13" ht="12.75" spans="2:7">
+    <row r="13" spans="2:7">
       <c r="B13" s="37" t="s">
         <v>12</v>
       </c>
@@ -2281,11 +2281,11 @@
       <c r="F13" s="36"/>
       <c r="G13" s="36"/>
     </row>
-    <row r="14" ht="12.75" spans="2:7">
+    <row r="14" ht="15" spans="2:7">
       <c r="B14" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="44" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="38" t="s">
@@ -2297,7 +2297,7 @@
       <c r="F14" s="36"/>
       <c r="G14" s="36"/>
     </row>
-    <row r="15" ht="12.75" spans="2:7">
+    <row r="15" spans="2:7">
       <c r="B15" s="39" t="s">
         <v>19</v>
       </c>
@@ -2350,10 +2350,10 @@
         <v>26</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E18" s="38" t="s">
         <v>15</v>
@@ -2372,10 +2372,10 @@
     <row r="20" ht="12.75" spans="2:7">
       <c r="B20" s="36"/>
       <c r="C20" s="37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E20" s="37" t="s">
         <v>11</v>
@@ -2388,10 +2388,10 @@
         <v>12</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E21" s="38" t="s">
         <v>15</v>
@@ -2404,7 +2404,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D22" s="38" t="s">
         <v>18</v>
@@ -2420,7 +2420,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D23" s="38" t="s">
         <v>18</v>
@@ -2436,10 +2436,10 @@
         <v>7</v>
       </c>
       <c r="C24" s="60" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E24" s="38" t="s">
         <v>15</v>
@@ -2452,10 +2452,10 @@
         <v>23</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E25" s="38" t="s">
         <v>15</v>
@@ -2468,10 +2468,10 @@
         <v>26</v>
       </c>
       <c r="C26" s="61" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E26" s="38" t="s">
         <v>15</v>
@@ -2490,10 +2490,10 @@
     <row r="28" customHeight="1" spans="2:7">
       <c r="B28" s="36"/>
       <c r="C28" s="37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E28" s="37" t="s">
         <v>11</v>
@@ -2506,10 +2506,10 @@
         <v>12</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E29" s="38" t="s">
         <v>15</v>
@@ -2522,10 +2522,10 @@
         <v>16</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E30" s="38" t="s">
         <v>15</v>
@@ -2538,13 +2538,13 @@
         <v>19</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E31" s="38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F31" s="36"/>
       <c r="G31" s="36"/>
@@ -2554,7 +2554,7 @@
         <v>7</v>
       </c>
       <c r="C32" s="38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D32" s="38" t="s">
         <v>18</v>
@@ -2570,10 +2570,10 @@
         <v>23</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E33" s="38" t="s">
         <v>15</v>
@@ -2586,10 +2586,10 @@
         <v>26</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E34" s="38" t="s">
         <v>15</v>
@@ -2625,6 +2625,7 @@
   <hyperlinks>
     <hyperlink ref="C9" r:id="rId3" display="https://ace.shr-eng.com/"/>
     <hyperlink ref="C10" r:id="rId4" display="https://ace.shr-eng.com/admin/login"/>
+    <hyperlink ref="C14" r:id="rId5" display="sarah@test.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -2686,7 +2687,7 @@
     <row r="2" ht="18.75" spans="1:26">
       <c r="A2" s="45"/>
       <c r="B2" s="46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="45"/>
@@ -2716,7 +2717,7 @@
     <row r="3" ht="12.75" spans="1:26">
       <c r="A3" s="45"/>
       <c r="B3" s="45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="45"/>
       <c r="D3" s="45"/>
@@ -2837,7 +2838,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D7" s="47"/>
       <c r="E7" s="47"/>
@@ -2897,7 +2898,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D9" s="47"/>
       <c r="E9" s="47"/>
@@ -3022,13 +3023,13 @@
         <v>12</v>
       </c>
       <c r="C13" s="56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13" s="56" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E13" s="56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F13" s="54"/>
       <c r="G13" s="36"/>
@@ -3056,13 +3057,13 @@
         <v>16</v>
       </c>
       <c r="C14" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="56" t="s">
         <v>58</v>
-      </c>
-      <c r="D14" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="56" t="s">
-        <v>57</v>
       </c>
       <c r="F14" s="54"/>
       <c r="G14" s="36"/>
@@ -3090,13 +3091,13 @@
         <v>19</v>
       </c>
       <c r="C15" s="56" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D15" s="56" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F15" s="54"/>
       <c r="G15" s="36"/>
@@ -3124,13 +3125,13 @@
         <v>7</v>
       </c>
       <c r="C16" s="56" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D16" s="56" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E16" s="56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F16" s="54"/>
       <c r="G16" s="36"/>
@@ -3158,13 +3159,13 @@
         <v>23</v>
       </c>
       <c r="C17" s="56" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D17" s="56" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E17" s="56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F17" s="54"/>
       <c r="G17" s="36"/>
@@ -3192,13 +3193,13 @@
         <v>26</v>
       </c>
       <c r="C18" s="56" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D18" s="56" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E18" s="56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F18" s="54"/>
       <c r="G18" s="36"/>
@@ -3252,10 +3253,10 @@
       <c r="A20" s="47"/>
       <c r="B20" s="54"/>
       <c r="C20" s="55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E20" s="55" t="s">
         <v>11</v>
@@ -3288,13 +3289,13 @@
         <v>12</v>
       </c>
       <c r="C21" s="56" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" s="56" t="s">
         <v>18</v>
       </c>
       <c r="E21" s="56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F21" s="54"/>
       <c r="G21" s="54"/>
@@ -3324,13 +3325,13 @@
         <v>16</v>
       </c>
       <c r="C22" s="56" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="56" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E22" s="56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F22" s="54"/>
       <c r="G22" s="54"/>
@@ -3360,13 +3361,13 @@
         <v>19</v>
       </c>
       <c r="C23" s="56" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E23" s="56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F23" s="54"/>
       <c r="G23" s="54"/>
@@ -3396,13 +3397,13 @@
         <v>7</v>
       </c>
       <c r="C24" s="56" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="56" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E24" s="56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F24" s="54"/>
       <c r="G24" s="54"/>
@@ -3432,13 +3433,13 @@
         <v>23</v>
       </c>
       <c r="C25" s="56" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D25" s="56" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E25" s="56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F25" s="54"/>
       <c r="G25" s="54"/>
@@ -3468,13 +3469,13 @@
         <v>26</v>
       </c>
       <c r="C26" s="56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D26" s="56" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E26" s="56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F26" s="54"/>
       <c r="G26" s="54"/>
@@ -30441,7 +30442,7 @@
     <row r="2" ht="18.75" spans="1:26">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -30471,7 +30472,7 @@
     <row r="3" ht="12.75" spans="1:26">
       <c r="A3" s="1"/>
       <c r="B3" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -30536,10 +30537,10 @@
     </row>
     <row r="7" ht="12.75" spans="2:3">
       <c r="B7" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" ht="12.75" spans="2:3">
@@ -30547,7 +30548,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" ht="12.75" spans="2:3">
@@ -30555,13 +30556,13 @@
         <v>7</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" ht="12.75" spans="2:5">
       <c r="B12" s="43"/>
       <c r="C12" s="37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" s="37" t="s">
         <v>10</v>
@@ -30575,13 +30576,13 @@
         <v>12</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" ht="15" spans="2:5">
@@ -30589,13 +30590,13 @@
         <v>16</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D14" s="38" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" ht="12.75" spans="2:5">
@@ -30603,13 +30604,13 @@
         <v>19</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D15" s="38" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" ht="12.75" spans="2:5">
@@ -30617,13 +30618,13 @@
         <v>7</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D16" s="38" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" ht="12.75" spans="2:5">
@@ -30631,13 +30632,13 @@
         <v>23</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D17" s="38" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" ht="12.75" spans="2:5">
@@ -30645,13 +30646,13 @@
         <v>26</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D18" s="38" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:5">
@@ -30663,10 +30664,10 @@
     <row r="20" customHeight="1" spans="2:5">
       <c r="B20" s="36"/>
       <c r="C20" s="37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E20" s="37" t="s">
         <v>11</v>
@@ -30677,13 +30678,13 @@
         <v>12</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:5">
@@ -30691,13 +30692,13 @@
         <v>16</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D22" s="38" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:5">
@@ -30705,13 +30706,13 @@
         <v>19</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D23" s="38" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:5">
@@ -30719,13 +30720,13 @@
         <v>7</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:5">
@@ -30733,13 +30734,13 @@
         <v>23</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D25" s="38" t="s">
         <v>18</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:5">
@@ -30747,13 +30748,13 @@
         <v>26</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D26" s="38" t="s">
         <v>18</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:5">
@@ -30876,7 +30877,7 @@
     <row r="2" ht="18.75" spans="1:26">
       <c r="A2" s="40"/>
       <c r="B2" s="41" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
@@ -30906,7 +30907,7 @@
     <row r="3" ht="12.75" spans="1:26">
       <c r="A3" s="40"/>
       <c r="B3" s="42" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
@@ -30974,7 +30975,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" ht="12.75" spans="2:3">
@@ -30982,7 +30983,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" ht="12.75" spans="2:3">
@@ -30990,7 +30991,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:5">
@@ -31016,13 +31017,13 @@
         <v>12</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" ht="12.75" spans="2:5">
@@ -31030,13 +31031,13 @@
         <v>16</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D14" s="38" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" ht="12.75" spans="2:5">
@@ -31044,13 +31045,13 @@
         <v>19</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D15" s="38" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" ht="12.75" spans="2:5">
@@ -31058,13 +31059,13 @@
         <v>7</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D16" s="38" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" ht="12.75" spans="2:5">
@@ -31072,13 +31073,13 @@
         <v>23</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" ht="12.75" spans="2:5">
@@ -31086,13 +31087,13 @@
         <v>26</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:5">
@@ -31104,10 +31105,10 @@
     <row r="20" customHeight="1" spans="2:5">
       <c r="B20" s="36"/>
       <c r="C20" s="37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E20" s="37" t="s">
         <v>11</v>
@@ -31118,13 +31119,13 @@
         <v>12</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:5">
@@ -31132,13 +31133,13 @@
         <v>16</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D22" s="38" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:5">
@@ -31146,13 +31147,13 @@
         <v>19</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D23" s="38" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:5">
@@ -31160,13 +31161,13 @@
         <v>7</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D24" s="38" t="s">
         <v>18</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:5">
@@ -31174,13 +31175,13 @@
         <v>23</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:5">
@@ -31188,13 +31189,13 @@
         <v>26</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:5">
@@ -31273,7 +31274,7 @@
     <row r="2" ht="18.75" spans="1:26">
       <c r="A2" s="33"/>
       <c r="B2" s="34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C2" s="33"/>
       <c r="D2" s="33"/>
@@ -31303,7 +31304,7 @@
     <row r="3" ht="12.75" spans="1:26">
       <c r="A3" s="33"/>
       <c r="B3" s="35" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
@@ -31371,7 +31372,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" ht="12.75" spans="2:3">
@@ -31379,7 +31380,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" ht="12.75" spans="2:3">
@@ -31387,7 +31388,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:5">
@@ -31413,13 +31414,13 @@
         <v>12</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" ht="12.75" spans="2:5">
@@ -31427,13 +31428,13 @@
         <v>16</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" ht="12.75" spans="2:5">
@@ -31441,10 +31442,10 @@
         <v>19</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E15" s="38" t="s">
         <v>123</v>
@@ -31455,10 +31456,10 @@
         <v>7</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E16" s="38" t="s">
         <v>123</v>
@@ -31472,7 +31473,7 @@
         <v>124</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E17" s="38" t="s">
         <v>123</v>
@@ -31483,10 +31484,10 @@
         <v>26</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E18" s="38" t="s">
         <v>123</v>
@@ -31501,10 +31502,10 @@
     <row r="20" ht="12.75" spans="2:5">
       <c r="B20" s="36"/>
       <c r="C20" s="37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E20" s="37" t="s">
         <v>11</v>
@@ -31515,10 +31516,10 @@
         <v>12</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E21" s="38" t="s">
         <v>125</v>
@@ -31535,7 +31536,7 @@
         <v>18</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" ht="12.75" spans="2:5">
@@ -31563,7 +31564,7 @@
         <v>18</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" ht="12.75" spans="2:5">
@@ -31577,7 +31578,7 @@
         <v>18</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" ht="12.75" spans="2:5">
@@ -31591,7 +31592,7 @@
         <v>18</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:5">
@@ -32092,7 +32093,7 @@
         <v>166</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>18</v>
@@ -32130,12 +32131,12 @@
         <v>167</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" ht="12.75" spans="3:5">
       <c r="C7" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>170</v>
@@ -32168,7 +32169,7 @@
     </row>
     <row r="10" ht="12.75" spans="3:5">
       <c r="C10" s="15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>18</v>
@@ -32204,7 +32205,7 @@
         <v>177</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>18</v>
@@ -32218,7 +32219,7 @@
         <v>178</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>170</v>
@@ -32251,7 +32252,7 @@
     </row>
     <row r="23" ht="12.75" spans="3:5">
       <c r="C23" s="15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>170</v>
@@ -32265,7 +32266,7 @@
         <v>179</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>170</v>
@@ -32279,7 +32280,7 @@
         <v>178</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>170</v>
@@ -32326,7 +32327,7 @@
         <v>181</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>170</v>
@@ -32340,7 +32341,7 @@
         <v>178</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>170</v>
@@ -32387,7 +32388,7 @@
         <v>183</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>170</v>
@@ -32401,7 +32402,7 @@
         <v>178</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>170</v>
@@ -32448,7 +32449,7 @@
         <v>185</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="D43" s="15" t="s">
         <v>170</v>
@@ -32462,7 +32463,7 @@
         <v>178</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>170</v>

--- a/Data/Input/Sapling Server Credentials.xlsx
+++ b/Data/Input/Sapling Server Credentials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12930" windowHeight="3495"/>
+    <workbookView windowWidth="12930" windowHeight="3495" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ace" sheetId="1" r:id="rId1"/>
@@ -939,6 +939,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -946,16 +954,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -969,15 +976,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -991,8 +990,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1006,15 +1006,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1030,30 +1032,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1068,15 +1069,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1175,7 +1175,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1187,175 +1349,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1414,6 +1414,56 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1447,22 +1497,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1475,186 +1510,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="41" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1740,7 +1740,7 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2080,8 +2080,8 @@
   </sheetPr>
   <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -2265,7 +2265,7 @@
       <c r="F12" s="36"/>
       <c r="G12" s="36"/>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" ht="12.75" spans="2:7">
       <c r="B13" s="37" t="s">
         <v>12</v>
       </c>
@@ -2297,7 +2297,7 @@
       <c r="F14" s="36"/>
       <c r="G14" s="36"/>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" ht="12.75" spans="2:7">
       <c r="B15" s="39" t="s">
         <v>19</v>
       </c>
@@ -2640,8 +2640,8 @@
   </sheetPr>
   <dimension ref="A1:Z986"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -2892,7 +2892,7 @@
       <c r="Y8" s="47"/>
       <c r="Z8" s="47"/>
     </row>
-    <row r="9" ht="15" spans="1:26">
+    <row r="9" spans="1:26">
       <c r="A9" s="47"/>
       <c r="B9" s="48" t="s">
         <v>5</v>
@@ -2924,14 +2924,14 @@
       <c r="Y9" s="47"/>
       <c r="Z9" s="47"/>
     </row>
-    <row r="10" ht="12.75" spans="1:26">
+    <row r="10" ht="15" spans="1:26">
       <c r="A10" s="47"/>
       <c r="B10" s="50" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="53" t="str">
-        <f>HYPERLINK("http://buzz.shr-eng.com/admin/login","http://buzzshr-eng.com/admin/login")</f>
-        <v>http://buzzshr-eng.com/admin/login</v>
+        <f>HYPERLINK("http://buzz.shr-eng.com/admin/login","http://buzz.shr-eng.com/admin/login")</f>
+        <v>http://buzz.shr-eng.com/admin/login</v>
       </c>
       <c r="D10" s="47"/>
       <c r="E10" s="47"/>
@@ -2957,7 +2957,7 @@
       <c r="Y10" s="47"/>
       <c r="Z10" s="47"/>
     </row>
-    <row r="11" ht="12.75" spans="1:26">
+    <row r="11" spans="1:26">
       <c r="A11" s="47"/>
       <c r="B11" s="54"/>
       <c r="C11" s="54"/>
